--- a/HT-2/Rummi-BAC-12-Catálogo de restricciones.xlsx
+++ b/HT-2/Rummi-BAC-12-Catálogo de restricciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca42e1a7130a379e/Uniandes/Quinto Semestre/Arqui Emp/Hojas de trabajo/^N2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{9C9FF4E4-ACE0-4F6A-9017-C158BA33D1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269BD634-8586-4804-9F8A-FCDCB16B2492}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{9C9FF4E4-ACE0-4F6A-9017-C158BA33D1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9906853E-A2C4-4AAF-8E9F-13F882C379EA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-12" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -151,6 +151,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +475,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -553,16 +559,12 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
